--- a/textToOps/data/processed/raw/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/raw/classification_wo_paraphrase_report.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5714285714285715</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6395348837209303</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6387163561076604</v>
+        <v>0.6253623188405797</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6775362318840579</v>
+        <v>0.6404761904761905</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6365424430641822</v>
+        <v>0.5999138542616805</v>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7261904761904762</v>
+        <v>0.6705426356589147</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6990740740740742</v>
+        <v>0.6303856995717459</v>
       </c>
       <c r="E27" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/raw/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/raw/classification_wo_paraphrase_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5454545454545454</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -503,10 +503,10 @@
         <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7647058823529412</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -579,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2857142857142858</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6395348837209303</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6395348837209303</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6395348837209303</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6395348837209303</v>
+        <v>0.735632183908046</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6253623188405797</v>
+        <v>0.7068840579710145</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6404761904761905</v>
+        <v>0.6679089026915114</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5999138542616805</v>
+        <v>0.6650976332562011</v>
       </c>
       <c r="E26" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6705426356589147</v>
+        <v>0.7243295019157088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6395348837209303</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6303856995717459</v>
+        <v>0.7071010013200683</v>
       </c>
       <c r="E27" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/raw/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/raw/classification_wo_paraphrase_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7647058823529412</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -579,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888888888888889</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C12" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C15" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.888888888888889</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -743,210 +743,134 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.8227848101265823</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.8227848101265823</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.8227848101265823</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>0.8227848101265823</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6</v>
+        <v>0.8300751879699249</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.8328320802005011</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.804337475390107</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>weighted avg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8628089210367692</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.8227848101265823</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8</v>
+        <v>0.8142173578882439</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.735632183908046</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.735632183908046</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.735632183908046</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.735632183908046</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.7068840579710145</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6679089026915114</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6650976332562011</v>
-      </c>
-      <c r="E26" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.7243295019157088</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.735632183908046</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.7071010013200683</v>
-      </c>
-      <c r="E27" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
